--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="146">
   <si>
     <t>Qty</t>
   </si>
@@ -690,6 +690,12 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/j112/tht-n-channel-transistors/onsemi/</t>
+  </si>
+  <si>
+    <t>Purchase in Etsy Store:</t>
+  </si>
+  <si>
+    <t>https://avalonharmonics.etsy.com/uk/listing/1640523986/printed-parts-20x-submini-switch-washers</t>
   </si>
 </sst>
 </file>
@@ -1589,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2394,6 +2400,12 @@
       </c>
       <c r="C49" s="6" t="s">
         <v>131</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2427,8 +2439,9 @@
     <hyperlink ref="F6" r:id="rId27"/>
     <hyperlink ref="F21" r:id="rId28"/>
     <hyperlink ref="F22" r:id="rId29"/>
+    <hyperlink ref="O49" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A2A7E-CC7A-4016-8813-EC1C734A6ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1260" windowWidth="36435" windowHeight="16815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;S" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="150">
   <si>
     <t>Qty</t>
   </si>
@@ -615,9 +621,6 @@
     <t>https://www.tme.eu/hr/en/details/mc5-10n/tht-film-capacitors/kemet/r82ec2100dq50k/</t>
   </si>
   <si>
-    <t>* Do not use the included washer.</t>
-  </si>
-  <si>
     <t>1x4</t>
   </si>
   <si>
@@ -643,6 +646,45 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005002426090397.html</t>
+  </si>
+  <si>
+    <t>D3, D4, D5</t>
+  </si>
+  <si>
+    <t>BZX55C4V7</t>
+  </si>
+  <si>
+    <t>Zener Diode (4.7V)</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/bzx55c4v7-cdi/tht-zener-diodes/cdil/bzx55c4v7/</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>J112</t>
+  </si>
+  <si>
+    <t>N-JFET Transistor</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/j112/tht-n-channel-transistors/onsemi/</t>
+  </si>
+  <si>
+    <t>Purchase in Etsy Store:</t>
+  </si>
+  <si>
+    <t>https://avalonharmonics.etsy.com/uk/listing/1640523986/printed-parts-20x-submini-switch-washers</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
   <si>
     <r>
@@ -658,51 +700,40 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <t>** Do not use the included washer.</t>
+  </si>
+  <si>
+    <t>TL074AC</t>
+  </si>
+  <si>
+    <t>* U1 has to be the AC version of TL074. Other versions might not work correctly.</t>
+  </si>
+  <si>
+    <r>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
-  </si>
-  <si>
-    <t>D3, D4, D5</t>
-  </si>
-  <si>
-    <t>BZX55C4V7</t>
-  </si>
-  <si>
-    <t>Zener Diode (4.7V)</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/bzx55c4v7-cdi/tht-zener-diodes/cdil/bzx55c4v7/</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>J112</t>
-  </si>
-  <si>
-    <t>N-JFET Transistor</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/j112/tht-n-channel-transistors/onsemi/</t>
-  </si>
-  <si>
-    <t>Purchase in Etsy Store:</t>
-  </si>
-  <si>
-    <t>https://avalonharmonics.etsy.com/uk/listing/1640523986/printed-parts-20x-submini-switch-washers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +927,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1239,7 +1278,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1252,6 +1291,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1304,14 +1344,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1349,7 +1392,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1421,7 +1464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1594,11 +1637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,19 +1760,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1963,7 +2006,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -1977,19 +2020,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -2026,10 +2069,10 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2054,16 +2097,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>69</v>
+      <c r="D23" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="E23" t="s">
         <v>63</v>
@@ -2077,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,59 +2140,59 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,30 +2200,33 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
         <v>34</v>
@@ -2188,42 +2234,39 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>17</v>
+      <c r="D31" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,124 +2274,127 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>33</v>
+        <v>96</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
       </c>
+      <c r="F32" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="4"/>
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>117</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>118</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="4"/>
-    </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
         <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,92 +2402,115 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>98</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-    </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>123</v>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>145</v>
+      <c r="C51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2:F11" r:id="rId1" display="https://www.aliexpress.com/item/1005002670881002.html"/>
-    <hyperlink ref="F12" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3"/>
-    <hyperlink ref="F16" r:id="rId4"/>
-    <hyperlink ref="F15" r:id="rId5"/>
-    <hyperlink ref="F17" r:id="rId6"/>
-    <hyperlink ref="F18" r:id="rId7"/>
-    <hyperlink ref="F20" r:id="rId8"/>
-    <hyperlink ref="F23" r:id="rId9"/>
-    <hyperlink ref="F24" r:id="rId10"/>
-    <hyperlink ref="F25" r:id="rId11"/>
-    <hyperlink ref="F26" r:id="rId12"/>
-    <hyperlink ref="F27" r:id="rId13"/>
-    <hyperlink ref="F41" r:id="rId14"/>
-    <hyperlink ref="F34" r:id="rId15"/>
-    <hyperlink ref="F35" r:id="rId16"/>
-    <hyperlink ref="F36" r:id="rId17"/>
-    <hyperlink ref="F14" r:id="rId18"/>
-    <hyperlink ref="F38" r:id="rId19"/>
-    <hyperlink ref="F39" r:id="rId20"/>
-    <hyperlink ref="F30" r:id="rId21"/>
-    <hyperlink ref="F31" r:id="rId22"/>
-    <hyperlink ref="F40" r:id="rId23"/>
-    <hyperlink ref="C49" r:id="rId24"/>
-    <hyperlink ref="F5" r:id="rId25"/>
-    <hyperlink ref="F19" r:id="rId26"/>
-    <hyperlink ref="F6" r:id="rId27"/>
-    <hyperlink ref="F21" r:id="rId28"/>
-    <hyperlink ref="F22" r:id="rId29"/>
-    <hyperlink ref="O49" r:id="rId30"/>
+    <hyperlink ref="F2:F11" r:id="rId1" display="https://www.aliexpress.com/item/1005002670881002.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C51" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F6" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F23" r:id="rId31" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A2A7E-CC7A-4016-8813-EC1C734A6ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03579DA3-AD31-402B-B0F9-056446C37D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;S" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -704,9 +717,6 @@
     </r>
   </si>
   <si>
-    <t>** Do not use the included washer.</t>
-  </si>
-  <si>
     <t>TL074AC</t>
   </si>
   <si>
@@ -727,6 +737,9 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>** Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1291,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1291,7 +1304,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1641,7 +1653,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
         <v>63</v>
@@ -2125,7 +2137,7 @@
       <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" t="s">
         <v>144</v>
       </c>
       <c r="E24" t="s">
@@ -2446,12 +2458,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">

--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03579DA3-AD31-402B-B0F9-056446C37D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89189F1E-17EC-4E81-AFE1-DE296D828727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
   <si>
     <t>Qty</t>
   </si>
@@ -68,9 +68,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>10uF (Film)</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>Capacitor Film THT</t>
-  </si>
-  <si>
-    <t>C-5mm 11x7.2mm</t>
   </si>
   <si>
     <t>C-5mm 2.5x7.2mm</t>
@@ -700,6 +694,37 @@
     <t>U2</t>
   </si>
   <si>
+    <t>https://www.tme.eu/hr/en/details/mks2-2.2u_50-r/tht-film-capacitors/wima/mks2b042201f00ko00/</t>
+  </si>
+  <si>
+    <t>C-5mm 5x7.2 / 11x7.2 mm</t>
+  </si>
+  <si>
+    <r>
+      <t>2.2uF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 10uF (Film)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Alpha 9mm Nut</t>
     </r>
@@ -715,20 +740,8 @@
       </rPr>
       <t>**</t>
     </r>
-  </si>
-  <si>
-    <t>TL074AC</t>
-  </si>
-  <si>
-    <t>* U1 has to be the AC version of TL074. Other versions might not work correctly.</t>
-  </si>
-  <si>
-    <r>
-      <t>U1</t>
-    </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -739,14 +752,38 @@
     </r>
   </si>
   <si>
-    <t>** Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
+    <t>** U1 has to be the AC version of TL074. Other versions might not work correctly.</t>
+  </si>
+  <si>
+    <t>*** Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
+  </si>
+  <si>
+    <t>* A 2.2 uF capacitor is the new preferred size. Older modules were built with 10uF, but the slew time was often too long and didn't allow for more suble slews in lower ranges.</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <r>
+      <t>TL074AC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,14 +975,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1650,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1695,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1683,11 +1712,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1695,199 +1724,199 @@
         <v>330</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1895,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1915,19 +1944,19 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1935,39 +1964,42 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1975,16 +2007,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,19 +2024,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,19 +2044,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,19 +2064,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,19 +2084,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,19 +2104,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2092,19 +2124,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2112,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,19 +2164,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2152,19 +2184,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,19 +2204,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,19 +2224,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,19 +2244,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,16 +2264,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,16 +2281,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2266,19 +2298,19 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,19 +2318,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2306,16 +2338,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
         <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,16 +2358,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
         <v>109</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="E35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2343,16 +2375,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
         <v>113</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,16 +2392,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
         <v>117</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F37" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,16 +2412,16 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,16 +2429,16 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,16 +2446,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,26 +2463,26 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
         <v>97</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2458,34 +2490,39 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>121</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>143</v>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +2531,7 @@
     <hyperlink ref="F12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="P15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="F17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="F20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
@@ -2513,16 +2550,17 @@
     <hyperlink ref="F31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="F32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="F41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C51" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="F5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="F19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="F6" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="F21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="F22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O52" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="F23" r:id="rId31" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
+    <hyperlink ref="F15" r:id="rId32" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89189F1E-17EC-4E81-AFE1-DE296D828727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7316EEE-2F4F-4106-B2E3-34C168FCD45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
   <si>
     <t>Qty</t>
   </si>
@@ -777,6 +777,9 @@
       </rPr>
       <t>**</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1685,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,6 +2278,9 @@
       <c r="E29" t="s">
         <v>33</v>
       </c>
+      <c r="F29" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2291,6 +2297,9 @@
       </c>
       <c r="E30" t="s">
         <v>33</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,8 +2568,9 @@
     <hyperlink ref="O52" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="F23" r:id="rId31" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
     <hyperlink ref="F15" r:id="rId32" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
+    <hyperlink ref="F29:F30" r:id="rId33" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7316EEE-2F4F-4106-B2E3-34C168FCD45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA34D2-353C-4EA0-9C86-4D8E0C9311C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,272 +224,6 @@
     <t>SPDT ON-ON</t>
   </si>
   <si>
-    <t>Parts in bold are on the front PCB!</t>
-  </si>
-  <si>
-    <t>Parts in itallic are on the back PCB!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J_B1, J_B3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, J_D1, J_D2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, R17, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, U2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, R19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C3, C4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, C5, C6, C7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R2, R4, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, C12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>J_A1, J_A3,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> J_C1, J_C2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R10, R11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, R20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R5, R6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>240k</t>
   </si>
   <si>
@@ -521,9 +255,6 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/bc547-cdi/npn-tht-transistors/cdil/tbc547/</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005003256812123.html</t>
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
@@ -781,12 +512,233 @@
   <si>
     <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, R17, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R10, R11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, R20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, R19</t>
+    </r>
+  </si>
+  <si>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <r>
+      <t>R2, R4,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R12, R14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, C12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C3, C4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, C5, C6, C7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, U2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J_A1, J_A3,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_C1, J_C2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B1, J_B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, J_D1, J_D2</t>
+    </r>
+  </si>
+  <si>
+    <t>Parts in itallic are on the front PCB!</t>
+  </si>
+  <si>
+    <t>Parts in bold are on the back PCB!</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005003256812123.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,14 +899,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -978,6 +922,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1321,9 +1280,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1333,9 +1292,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1685,7 +1645,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1729,14 +1689,14 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
+      <c r="F2" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1749,14 +1709,14 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>66</v>
+      <c r="D3" t="s">
+        <v>140</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>78</v>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1775,8 +1735,8 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>78</v>
+      <c r="F4" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1795,8 +1755,8 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>129</v>
+      <c r="F5" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1804,19 +1764,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>136</v>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>129</v>
+      <c r="F6" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1829,14 +1789,14 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
+      <c r="D7" t="s">
+        <v>141</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>78</v>
+      <c r="F7" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1849,14 +1809,14 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>68</v>
+      <c r="D8" t="s">
+        <v>142</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>78</v>
+      <c r="F8" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1869,14 +1829,14 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>74</v>
+      <c r="D9" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>78</v>
+      <c r="F9" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1884,19 +1844,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>78</v>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1910,13 +1870,13 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>78</v>
+      <c r="F11" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1929,14 +1889,14 @@
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>71</v>
+      <c r="D12" t="s">
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>79</v>
+      <c r="F12" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1949,14 +1909,14 @@
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
+      <c r="D13" t="s">
+        <v>146</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>80</v>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1969,14 +1929,14 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>120</v>
+      <c r="F14" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1984,22 +1944,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>82</v>
+      <c r="F15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2012,14 +1972,14 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>81</v>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,14 +1992,14 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>83</v>
+      <c r="F17" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,14 +2012,14 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>130</v>
+      <c r="D18" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>84</v>
+      <c r="F18" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,19 +2027,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>133</v>
+      <c r="D19" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,8 +2058,8 @@
       <c r="E20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>85</v>
+      <c r="F20" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,19 +2067,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,14 +2092,14 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>67</v>
+      <c r="D22" t="s">
+        <v>147</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>86</v>
+      <c r="F22" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,19 +2107,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>150</v>
+      <c r="D23" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>87</v>
+      <c r="F23" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2173,13 +2133,13 @@
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>87</v>
+      <c r="F24" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,16 +2150,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>88</v>
+        <v>113</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,14 +2172,14 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E26" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>89</v>
+      <c r="F26" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,14 +2192,14 @@
       <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>90</v>
+      <c r="F27" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,19 +2207,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>92</v>
+      <c r="F28" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,19 +2227,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>152</v>
+      <c r="F29" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -2298,8 +2258,8 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>152</v>
+      <c r="F30" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2307,19 +2267,19 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>127</v>
+      <c r="F31" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,19 +2287,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>127</v>
+      <c r="F32" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,12 +2307,12 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E33" t="s">
@@ -2367,16 +2327,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2384,16 +2344,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2401,16 +2361,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,16 +2381,16 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,16 +2398,16 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,16 +2415,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,49 +2432,49 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>64</v>
+      <c r="B44" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>63</v>
+      <c r="B45" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>149</v>
+      <c r="B47" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>147</v>
+      <c r="B48" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>148</v>
+      <c r="B49" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2522,16 +2482,16 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O52" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2564,11 +2524,11 @@
     <hyperlink ref="F19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="F6" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="F21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O52" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F23" r:id="rId31" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
-    <hyperlink ref="F15" r:id="rId32" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
-    <hyperlink ref="F29:F30" r:id="rId33" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>
+    <hyperlink ref="O52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F23" r:id="rId30" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
+    <hyperlink ref="F15" r:id="rId31" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
+    <hyperlink ref="F29:F30" r:id="rId32" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>
+    <hyperlink ref="F22" r:id="rId33" xr:uid="{B3BEA3C8-45AF-4461-AEBA-B3CF3A651F54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>

--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA34D2-353C-4EA0-9C86-4D8E0C9311C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AE3C06-E441-4422-B5F2-0532ECA3ED2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
   <si>
     <t>Qty</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>NPN Transistor</t>
-  </si>
-  <si>
-    <t>Sub-Mini SPDT</t>
   </si>
   <si>
     <t>SW_SLEW, SW_SOURCE</t>
@@ -456,37 +453,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Alpha 9mm Nut</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>** U1 has to be the AC version of TL074. Other versions might not work correctly.</t>
-  </si>
-  <si>
-    <t>*** Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
   </si>
   <si>
     <t>* A 2.2 uF capacitor is the new preferred size. Older modules were built with 10uF, but the slew time was often too long and didn't allow for more suble slews in lower ranges.</t>
@@ -732,6 +699,54 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005003256812123.html</t>
+  </si>
+  <si>
+    <r>
+      <t>Alpha 9mm Nut</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>**** Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
+  </si>
+  <si>
+    <t>*** Use the included extra nut as a washer between the switches and the panel.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sub-Mini SPDT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>***</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1642,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1696,7 +1711,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1710,13 +1725,13 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1736,7 +1751,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1756,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1764,19 +1779,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1790,13 +1805,13 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1810,13 +1825,13 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1830,13 +1845,13 @@
         <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1844,19 +1859,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1870,13 +1885,13 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1890,13 +1905,13 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1910,13 +1925,13 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1936,7 +1951,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1944,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
@@ -1956,10 +1971,10 @@
         <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1979,7 +1994,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,7 +2014,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,13 +2028,13 @@
         <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,19 +2042,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,7 +2074,7 @@
         <v>54</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -2076,10 +2091,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,19 +2102,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,19 +2122,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2130,16 +2145,16 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,16 +2165,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,19 +2202,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" t="s">
         <v>56</v>
       </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,10 +2222,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>47</v>
@@ -2219,7 +2234,7 @@
         <v>46</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,19 +2242,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,10 +2262,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -2259,7 +2274,7 @@
         <v>33</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,10 +2302,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>16</v>
@@ -2299,7 +2314,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2307,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>32</v>
@@ -2327,16 +2342,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>95</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,16 +2359,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>99</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,16 +2376,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>103</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,16 +2396,16 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2398,16 +2413,16 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,26 +2447,26 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>83</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,39 +2474,44 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>106</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2</v>
       </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L52" s="3" t="s">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O53" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2519,12 +2539,12 @@
     <hyperlink ref="F31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="F32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="F41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="F5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="F19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="F6" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="F21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O53" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="F23" r:id="rId30" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
     <hyperlink ref="F15" r:id="rId31" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
     <hyperlink ref="F29:F30" r:id="rId32" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>

--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AE3C06-E441-4422-B5F2-0532ECA3ED2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D1073-2A59-4390-B7B5-F2FB1D7FD436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
   <si>
     <t>Qty</t>
   </si>
@@ -747,6 +747,9 @@
       </rPr>
       <t>***</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1663,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,6 +2335,9 @@
       </c>
       <c r="E33" t="s">
         <v>33</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2549,8 +2555,9 @@
     <hyperlink ref="F15" r:id="rId31" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
     <hyperlink ref="F29:F30" r:id="rId32" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>
     <hyperlink ref="F22" r:id="rId33" xr:uid="{B3BEA3C8-45AF-4461-AEBA-B3CF3A651F54}"/>
+    <hyperlink ref="F33" r:id="rId34" xr:uid="{46948A8B-6EC2-4E89-AF34-0564791E4119}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D1073-2A59-4390-B7B5-F2FB1D7FD436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2D32EF-4A23-4F38-86A1-3F506CB09CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>Qty</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>Potentiometer Nut</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/alpha-nuts-washers/</t>
   </si>
   <si>
     <t>Sub-Mini Washer</t>
@@ -750,6 +747,12 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1666,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1731,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -1774,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1782,19 +1785,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1808,7 +1811,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -1828,7 +1831,7 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -1848,7 +1851,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -1888,7 +1891,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -1908,7 +1911,7 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
@@ -1928,7 +1931,7 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1954,7 +1957,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1962,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
@@ -1974,7 +1977,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>69</v>
@@ -2031,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -2045,19 +2048,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="E19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
@@ -2094,10 +2097,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,13 +2114,13 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2125,13 +2128,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
@@ -2151,7 +2154,7 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
@@ -2168,13 +2171,13 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>74</v>
@@ -2208,7 +2211,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>55</v>
@@ -2225,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -2245,19 +2248,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
         <v>79</v>
@@ -2277,7 +2280,7 @@
         <v>33</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,19 +2288,19 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
         <v>80</v>
@@ -2317,7 +2320,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
         <v>79</v>
@@ -2337,7 +2340,7 @@
         <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2348,16 +2351,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
         <v>93</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>94</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,16 +2368,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,16 +2385,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
         <v>101</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>102</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2408,7 +2411,7 @@
         <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>87</v>
@@ -2425,7 +2428,7 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>89</v>
@@ -2439,13 +2442,13 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,12 +2470,12 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2480,27 +2483,27 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2508,16 +2511,16 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O53" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2544,18 +2547,18 @@
     <hyperlink ref="F40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="F31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="F32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F6" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O53" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F23" r:id="rId30" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
-    <hyperlink ref="F15" r:id="rId31" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
-    <hyperlink ref="F29:F30" r:id="rId32" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>
-    <hyperlink ref="F22" r:id="rId33" xr:uid="{B3BEA3C8-45AF-4461-AEBA-B3CF3A651F54}"/>
-    <hyperlink ref="F33" r:id="rId34" xr:uid="{46948A8B-6EC2-4E89-AF34-0564791E4119}"/>
+    <hyperlink ref="C53" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F5" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F23" r:id="rId29" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
+    <hyperlink ref="F15" r:id="rId30" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
+    <hyperlink ref="F29:F30" r:id="rId31" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>
+    <hyperlink ref="F22" r:id="rId32" xr:uid="{B3BEA3C8-45AF-4461-AEBA-B3CF3A651F54}"/>
+    <hyperlink ref="F33" r:id="rId33" xr:uid="{46948A8B-6EC2-4E89-AF34-0564791E4119}"/>
+    <hyperlink ref="F41" r:id="rId34" xr:uid="{FE2FF78F-397D-4B16-A1A0-D8DC2E8DDE30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>

--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2D32EF-4A23-4F38-86A1-3F506CB09CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E176F-8A0E-455A-9FF0-906D8678A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,30 +137,9 @@
     <t>Header Connector</t>
   </si>
   <si>
-    <t>R-W4</t>
-  </si>
-  <si>
     <t>Resistor THT</t>
   </si>
   <si>
-    <t>C-5mm</t>
-  </si>
-  <si>
-    <t>E2.5-6.3</t>
-  </si>
-  <si>
-    <t>Capacitor Polarized THT</t>
-  </si>
-  <si>
-    <t>Capacitor Ceramic THT</t>
-  </si>
-  <si>
-    <t>Capacitor Film THT</t>
-  </si>
-  <si>
-    <t>C-5mm 2.5x7.2mm</t>
-  </si>
-  <si>
     <t>DO-41</t>
   </si>
   <si>
@@ -420,9 +399,6 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/mks2-2.2u_50-r/tht-film-capacitors/wima/mks2b042201f00ko00/</t>
-  </si>
-  <si>
-    <t>C-5mm 5x7.2 / 11x7.2 mm</t>
   </si>
   <si>
     <r>
@@ -753,6 +729,30 @@
   </si>
   <si>
     <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>C-P5mm 2.5x7.2mm</t>
+  </si>
+  <si>
+    <t>C-P5mm 5x7.2 / 11x7.2 mm</t>
+  </si>
+  <si>
+    <t>Film Capacitor THT</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
   </si>
 </sst>
 </file>
@@ -1666,14 +1666,14 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -1696,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1708,16 +1708,16 @@
         <v>330</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1728,16 +1728,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1748,16 +1748,16 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1768,16 +1768,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1785,19 +1785,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1808,16 +1808,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1828,16 +1828,16 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1848,16 +1848,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1865,19 +1865,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1888,16 +1888,16 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1908,16 +1908,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1928,16 +1928,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1948,16 +1948,16 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1965,22 +1965,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1991,16 +1991,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,16 +2011,16 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,16 +2031,16 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,19 +2048,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,16 +2071,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2088,19 +2088,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,19 +2108,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,19 +2128,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,16 +2151,16 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,16 +2171,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,19 +2188,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,19 +2208,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,19 +2228,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2248,19 +2248,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -2280,7 +2280,7 @@
         <v>33</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2288,19 +2288,19 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>16</v>
@@ -2320,7 +2320,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>32</v>
@@ -2340,7 +2340,7 @@
         <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,16 +2351,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2368,16 +2368,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,16 +2385,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,16 +2405,16 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,16 +2422,16 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,16 +2439,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2456,26 +2456,26 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2483,27 +2483,27 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2511,16 +2511,16 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E176F-8A0E-455A-9FF0-906D8678A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0BA264-4FD7-45BA-B47A-8F260576296E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;S" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
   <si>
     <t>Qty</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Audio Jack</t>
   </si>
   <si>
-    <t>J_IN, J_NOISE, J_OUT, J_TRIG</t>
-  </si>
-  <si>
     <t>L-937EGW</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>NPN Transistor</t>
   </si>
   <si>
-    <t>SW_SLEW, SW_SOURCE</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -212,36 +206,9 @@
     <t>https://www.aliexpress.com/item/1005002670881002.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/mks2-10u_50v/tht-film-capacitors/wima/mks2b051001n00kssd/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/bc547-cdi/npn-tht-transistors/cdil/tbc547/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
-  </si>
-  <si>
     <t>https://www.thonk.co.uk/shop/alpha-9mm-pots-dshaft/</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/l-937egw/tht-leds-3mm/kingbright-electronic/</t>
-  </si>
-  <si>
     <t>https://www.thonk.co.uk/shop/sub-mini-toggle-switches/</t>
   </si>
   <si>
@@ -329,9 +296,6 @@
     <t>3D Printed Parts:</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/mc5-10n/tht-film-capacitors/kemet/r82ec2100dq50k/</t>
-  </si>
-  <si>
     <t>1x4</t>
   </si>
   <si>
@@ -371,9 +335,6 @@
     <t>D6</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/bzx55c4v7-cdi/tht-zener-diodes/cdil/bzx55c4v7/</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -386,9 +347,6 @@
     <t>N-JFET Transistor</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/j112/tht-n-channel-transistors/onsemi/</t>
-  </si>
-  <si>
     <t>Purchase in Etsy Store:</t>
   </si>
   <si>
@@ -398,9 +356,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/mks2-2.2u_50-r/tht-film-capacitors/wima/mks2b042201f00ko00/</t>
-  </si>
-  <si>
     <r>
       <t>2.2uF</t>
     </r>
@@ -450,9 +405,134 @@
     </r>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R10, R11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, R20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, R19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R2, R4,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R12, R14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, C12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C3, C4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, C5, C6, C7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, U2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J_A1, J_A3,</t>
+    </r>
     <r>
       <rPr>
         <i/>
@@ -460,6 +540,210 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_C1, J_C2</t>
+    </r>
+  </si>
+  <si>
+    <t>Parts in bold are on the back PCB!</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005003256812123.html</t>
+  </si>
+  <si>
+    <r>
+      <t>Alpha 9mm Nut</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>**** Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
+  </si>
+  <si>
+    <t>*** Use the included extra nut as a washer between the switches and the panel.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sub-Mini SPDT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>***</t>
+    </r>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>C-P5mm 2.5x7.2mm</t>
+  </si>
+  <si>
+    <t>C-P5mm 5x7.2 / 11x7.2 mm</t>
+  </si>
+  <si>
+    <t>Film Capacitor THT</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Avalon Harmonics S&amp;S</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p044/73P0032/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p046/73P0034/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p048/73P0036/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p049/73P0037/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p050/73P0038/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p052/73P0040/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p053/73P0041/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p054/73P0042/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p057/73P0045/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/mc5-10n/tht-film-capacitors/kemet/r82ec2100dq50k/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/mks2-2.2u_50-r/tht-film-capacitors/wima/mks2b042201f00ko00/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/bzx55c4v7-cdi/tht-zener-diodes/cdil/bzx55c4v7/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/bc547-cdi/npn-tht-transistors/cdil/tbc547/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/j112/tht-n-channel-transistors/onsemi/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l-937egw/tht-leds-3mm/kingbright-electronic/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/mks2-10u_50v/tht-film-capacitors/wima/mks2b051001n00kssd/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-14p/standard-dip-sockets/connfly/ds1009-14at1nx-0a2/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-4sg/pin-headers/connfly/ds1023-1-4s21/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-3sg/pin-headers/connfly/ds1023-1-3s21/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/vishay/wirewound-resistors/mba02040c2403fct00/14E750/</t>
+  </si>
+  <si>
+    <t>Parts  with underline are on the front PCB!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>R16</t>
@@ -476,7 +760,7 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -489,35 +773,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R10, R11</t>
-    </r>
-    <r>
-      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, R20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R13</t>
+      <t>R5</t>
     </r>
     <r>
       <rPr>
@@ -527,81 +790,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, R19</t>
-    </r>
-  </si>
-  <si>
-    <t>R5, R6</t>
-  </si>
-  <si>
-    <r>
-      <t>R2, R4,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R12, R14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C9</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, C12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C3, C4</t>
-    </r>
-    <r>
-      <rPr>
+      <t>R6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, C5, C6, C7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U1</t>
+      <t>SW_SLEW</t>
     </r>
     <r>
       <rPr>
@@ -611,47 +824,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, U2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>J_A1, J_A3,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J_C1, J_C2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SW_SOURCE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>J_B1, J_B3</t>
+      <t>J_IN</t>
     </r>
     <r>
       <rPr>
@@ -661,105 +858,112 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_NOISE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_TRIG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J_B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>, J_D1, J_D2</t>
     </r>
-  </si>
-  <si>
-    <t>Parts in itallic are on the front PCB!</t>
-  </si>
-  <si>
-    <t>Parts in bold are on the back PCB!</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005003256812123.html</t>
-  </si>
-  <si>
-    <r>
-      <t>Alpha 9mm Nut</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>***</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>**** Do not use the included washer. Tighten very gently so the PCB doesn't get scratched.</t>
-  </si>
-  <si>
-    <t>*** Use the included extra nut as a washer between the switches and the panel.</t>
-  </si>
-  <si>
-    <r>
-      <t>Sub-Mini SPDT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>***</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
-  </si>
-  <si>
-    <t>Thonkiconn</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/black-nuts-washers/</t>
-  </si>
-  <si>
-    <t>R-1/4W</t>
-  </si>
-  <si>
-    <t>C-P5mm</t>
-  </si>
-  <si>
-    <t>C-P5mm 2.5x7.2mm</t>
-  </si>
-  <si>
-    <t>C-P5mm 5x7.2 / 11x7.2 mm</t>
-  </si>
-  <si>
-    <t>Film Capacitor THT</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor THT</t>
-  </si>
-  <si>
-    <t>Electrolytic Capacitor THT</t>
-  </si>
-  <si>
-    <t>E-P2.5mm 6.3x11.5mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,16 +1150,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1303,7 +1515,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1317,6 +1529,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1663,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,888 +1893,1024 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>330</v>
       </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
+        <v>127</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>111</v>
+      <c r="D19" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
+        <v>48</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="J24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="J25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="F27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>40</v>
+        <v>124</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="J28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>136</v>
+        <v>59</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="J31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>171</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+        <v>164</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1</v>
       </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="J42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>119</v>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2:F11" r:id="rId1" display="https://www.aliexpress.com/item/1005002670881002.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F25" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C53" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F5" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F23" r:id="rId29" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
-    <hyperlink ref="F15" r:id="rId30" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
-    <hyperlink ref="F29:F30" r:id="rId31" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>
-    <hyperlink ref="F22" r:id="rId32" xr:uid="{B3BEA3C8-45AF-4461-AEBA-B3CF3A651F54}"/>
-    <hyperlink ref="F33" r:id="rId33" xr:uid="{46948A8B-6EC2-4E89-AF34-0564791E4119}"/>
-    <hyperlink ref="F41" r:id="rId34" xr:uid="{FE2FF78F-397D-4B16-A1A0-D8DC2E8DDE30}"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F43" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F37" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F40" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F41" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C54" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J7" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O54" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F24" r:id="rId28" xr:uid="{0DA5FBDE-A9E6-48C7-A3AB-9C6D18E6934A}"/>
+    <hyperlink ref="F16" r:id="rId29" xr:uid="{97709935-7D03-4437-A153-F74893B872B7}"/>
+    <hyperlink ref="F30:F31" r:id="rId30" display="https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/" xr:uid="{6D1EC43E-9D04-417C-B22C-F34EBB95F4FB}"/>
+    <hyperlink ref="J23" r:id="rId31" xr:uid="{B3BEA3C8-45AF-4461-AEBA-B3CF3A651F54}"/>
+    <hyperlink ref="F34" r:id="rId32" xr:uid="{46948A8B-6EC2-4E89-AF34-0564791E4119}"/>
+    <hyperlink ref="F42" r:id="rId33" xr:uid="{FE2FF78F-397D-4B16-A1A0-D8DC2E8DDE30}"/>
+    <hyperlink ref="F3" r:id="rId34" xr:uid="{3393264D-1B1F-4645-B282-8591715A5FD8}"/>
+    <hyperlink ref="F4" r:id="rId35" xr:uid="{77B2F287-2D67-4EDB-B812-9D2E2455569D}"/>
+    <hyperlink ref="F5" r:id="rId36" xr:uid="{A849614D-E4C2-4722-818E-E5575A954759}"/>
+    <hyperlink ref="F6" r:id="rId37" xr:uid="{00BC0B3C-301E-437D-9108-D62EF7BB272D}"/>
+    <hyperlink ref="F7" r:id="rId38" xr:uid="{F954481B-123E-4737-8D9B-9BF253962766}"/>
+    <hyperlink ref="F8" r:id="rId39" xr:uid="{6F2ABE65-0EEB-4829-BE85-EAC7DC43D34C}"/>
+    <hyperlink ref="F9" r:id="rId40" xr:uid="{DB59D5A3-699A-4BDC-B20F-9A0A76A544CE}"/>
+    <hyperlink ref="F10" r:id="rId41" xr:uid="{DE3095A7-8912-439A-B518-2DE646201FA8}"/>
+    <hyperlink ref="F12" r:id="rId42" xr:uid="{72AF700C-C62F-4A68-85E1-015C1DE22969}"/>
+    <hyperlink ref="F30" r:id="rId43" xr:uid="{D27A72D3-14F2-4327-8A7C-99F2AA648DBA}"/>
+    <hyperlink ref="F31" r:id="rId44" xr:uid="{6112AD62-D760-45FA-884B-79BE55E4F128}"/>
+    <hyperlink ref="F23" r:id="rId45" xr:uid="{391EA039-2C02-462F-9643-F020B31CDA02}"/>
+    <hyperlink ref="F32" r:id="rId46" xr:uid="{3E04B101-2D92-41AC-B60D-4692ED670224}"/>
+    <hyperlink ref="F33" r:id="rId47" xr:uid="{0A05E156-C61A-477D-B43C-FE97AEACECF2}"/>
+    <hyperlink ref="J11" r:id="rId48" xr:uid="{C309A78D-41B0-4435-8722-0B1A25E141FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/Modules/S&S/S&S_BOM.xlsx
+++ b/Modules/S&S/S&S_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\S&amp;S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0BA264-4FD7-45BA-B47A-8F260576296E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E185BA-7DF5-4D03-82C9-EB50A0C79444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="S&amp;S" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -158,9 +158,6 @@
     <t>L-937EGW</t>
   </si>
   <si>
-    <t>LED 3mm Flat Bicolor</t>
-  </si>
-  <si>
     <t>LED Red/Green</t>
   </si>
   <si>
@@ -957,6 +954,9 @@
       </rPr>
       <t>, J_D1, J_D2</t>
     </r>
+  </si>
+  <si>
+    <t>LED 3mm Dome Bicolor</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1515,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1530,7 +1530,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1880,7 +1879,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1894,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1915,11 +1914,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1930,7 +1929,7 @@
         <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -1939,10 +1938,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,19 +1952,19 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1976,7 +1975,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1985,10 +1984,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1999,7 +1998,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2008,10 +2007,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2019,22 +2018,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2045,19 +2044,19 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2068,19 +2067,19 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2091,19 +2090,19 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>168</v>
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2111,22 +2110,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2137,19 +2136,19 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2160,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2183,19 +2182,19 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2206,19 +2205,19 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2226,22 +2225,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2252,19 +2251,19 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,10 +2283,10 @@
         <v>37</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2301,16 +2300,16 @@
         <v>36</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2318,22 +2317,22 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2344,19 +2343,19 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2364,22 +2363,22 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2387,22 +2386,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2410,22 +2409,22 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2436,19 +2435,19 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2459,19 +2458,19 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2482,19 +2481,19 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2502,22 +2501,22 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>169</v>
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2525,22 +2524,22 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
       </c>
       <c r="E29" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2548,22 +2547,22 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2571,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -2583,10 +2582,10 @@
         <v>33</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2594,22 +2593,22 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2617,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>16</v>
@@ -2629,10 +2628,10 @@
         <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2640,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>32</v>
@@ -2652,10 +2651,10 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2666,19 +2665,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>75</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="J36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2686,19 +2685,19 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>79</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="J37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2706,19 +2705,19 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>83</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="J38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2729,19 +2728,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
         <v>67</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="J40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2749,19 +2748,19 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2769,19 +2768,19 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,29 +2788,29 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>64</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2819,27 +2818,27 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -2847,16 +2846,16 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O54" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
